--- a/output/tarefa3_results.xlsx
+++ b/output/tarefa3_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[5.008086285784873, 5.735526692821985, 10.576152470887168]</t>
+          <t>[5.008104594931483, 5.7341994552652675, 10.599637435894216]</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -511,16 +511,16 @@
         <v>19.2897</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2947</v>
+        <v>15.2952</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Normalized</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,64 +530,175 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0]</t>
+          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[5.028550727608425, 5.683969943581228, -17.051042651302936]</t>
+          <t>[5.008104595111034, 5.734199441858533, 10.599637668864629]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1221.99</v>
+        <v>372.092</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.88</v>
+        <v>372.092</v>
       </c>
       <c r="G3" t="n">
-        <v>34.2327</v>
+        <v>19.2897</v>
       </c>
       <c r="H3" t="n">
-        <v>29.4279</v>
+        <v>15.2952</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[5.008098885544916, 5.7342039700585, 638.9028167934122]</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="F4" t="n">
+        <v>395137</v>
+      </c>
+      <c r="G4" t="n">
+        <v>628.599</v>
+      </c>
+      <c r="H4" t="n">
+        <v>628.303</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[5.00809888579188, 5.734203973728281, 638.9028168269581]</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="F5" t="n">
+        <v>395137</v>
+      </c>
+      <c r="G5" t="n">
+        <v>628.599</v>
+      </c>
+      <c r="H5" t="n">
+        <v>628.303</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Standardized</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>[0.0, 0.0, 0.0]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[5.033983227092021, 5.714335338693724, -17.866923432055675]</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1221.55</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1204.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.7016</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.9115</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[5.00810459502517, 5.734199448074711, 10.599637559505098]</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="F6" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.2897</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Standardized</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[5.00810459502517, 5.734199448074709, 10.59963755950514]</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="F7" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.2897</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
     </row>

--- a/output/tarefa3_results.xlsx
+++ b/output/tarefa3_results.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[5.008104594931483, 5.7341994552652675, 10.599637435894216]</t>
+          <t>[5.008104595025083, 5.734199448081934, 10.599637559380861]</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -530,12 +530,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
+          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[5.008104595111034, 5.734199441858533, 10.599637668864629]</t>
+          <t>[5.008104595025083, 5.734199448081913, 10.599637559381193]</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -551,7 +551,7 @@
         <v>15.2952</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -572,23 +572,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[5.008098885544916, 5.7342039700585, 638.9028167934122]</t>
+          <t>[5.008104595001939, 5.734199448075995, 638.9034182886577]</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>372.092</v>
       </c>
       <c r="F4" t="n">
-        <v>395137</v>
+        <v>395138</v>
       </c>
       <c r="G4" t="n">
-        <v>628.599</v>
+        <v>628.6</v>
       </c>
       <c r="H4" t="n">
-        <v>628.303</v>
+        <v>628.304</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -604,28 +604,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
+          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[5.00809888579188, 5.734203973728281, 638.9028168269581]</t>
+          <t>[5.008104595001943, 5.734199448075998, 638.9034182886583]</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>372.092</v>
       </c>
       <c r="F5" t="n">
-        <v>395137</v>
+        <v>395138</v>
       </c>
       <c r="G5" t="n">
-        <v>628.599</v>
+        <v>628.6</v>
       </c>
       <c r="H5" t="n">
-        <v>628.303</v>
+        <v>628.304</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[5.00810459502517, 5.734199448074711, 10.599637559505098]</t>
+          <t>[5.008104595020174, 5.734199448068984, 10.599637559494422]</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -662,7 +662,7 @@
         <v>15.2952</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -678,12 +678,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.035358539505612, 0.07659193483788256, 0.03375499333000125]</t>
+          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.00810459502517, 5.734199448074709, 10.59963755950514]</t>
+          <t>[5.008104595020175, 5.734199448068984, 10.599637559494454]</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -699,7 +699,7 @@
         <v>15.2952</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/tarefa3_results.xlsx
+++ b/output/tarefa3_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Weights_raw</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Final_Weights</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Final_Loss</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MSE_Final</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RMSE_Final</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MAE_Final</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Iterations</t>
         </is>
@@ -498,22 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>[ 5.0081046   5.73419945 10.59963756]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>[5.008104595025083, 5.734199448081934, 10.599637559380861]</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>372.092</v>
-      </c>
       <c r="F2" t="n">
         <v>372.092</v>
       </c>
       <c r="G2" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="H2" t="n">
         <v>19.2897</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>15.2952</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
+          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[5.008104595025083, 5.734199448081913, 10.599637559381193]</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>372.092</v>
+          <t>[ 5.0081046   5.73419945 10.59963756]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[5.008104595025083, 5.73419944808188, 10.599637559381778]</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>372.092</v>
       </c>
       <c r="G3" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="H3" t="n">
         <v>19.2897</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>15.2952</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -572,22 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>[371.16064774  47.70853941  13.11971189]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>[5.008104595001939, 5.734199448075995, 638.9034182886577]</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>372.092</v>
-      </c>
       <c r="F4" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="G4" t="n">
         <v>395138</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>628.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>628.304</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
+          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[5.008104595001943, 5.734199448075998, 638.9034182886583]</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>372.092</v>
+          <t>[371.16064774  47.70853941  13.11971189]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[5.008104595001941, 5.734199448076006, 638.9034182886581]</t>
+        </is>
       </c>
       <c r="F5" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="G5" t="n">
         <v>395138</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>628.6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>628.304</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -646,22 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>[288.11203268  48.82467957  36.99057293]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>[5.008104595020174, 5.734199448068984, 10.599637559494422]</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>372.092</v>
-      </c>
       <c r="F6" t="n">
         <v>372.092</v>
       </c>
       <c r="G6" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="H6" t="n">
         <v>19.2897</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>15.2952</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.07216214071967907, 0.003837615585597354, 0.029519545063113963]</t>
+          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.008104595020175, 5.734199448068984, 10.599637559494454]</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>372.092</v>
+          <t>[288.11203268  48.82467957  36.99057293]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[5.008104595020175, 5.734199448068985, 10.599637559494475]</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>372.092</v>
       </c>
       <c r="G7" t="n">
+        <v>372.092</v>
+      </c>
+      <c r="H7" t="n">
         <v>19.2897</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>15.2952</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>3</v>
       </c>
     </row>

--- a/output/tarefa3_results.xlsx
+++ b/output/tarefa3_results.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
+          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[5.008104595025083, 5.73419944808188, 10.599637559381778]</t>
+          <t>[5.008104595025083, 5.734199448081883, 10.59963755938173]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
+          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[5.008104595001941, 5.734199448076006, 638.9034182886581]</t>
+          <t>[5.00810459500194, 5.734199448076016, 638.903418288658]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.04271399961972451, 0.008952370098035345, 0.07679250311927917]</t>
+          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[5.008104595020175, 5.734199448068985, 10.599637559494475]</t>
+          <t>[5.008104595020174, 5.734199448068993, 10.599637559494415]</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/output/tarefa3_results.xlsx
+++ b/output/tarefa3_results.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
+          <t>[0.09276893926046914, 0.08168661668268835, 0.04803145896248584]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[5.008104595025083, 5.734199448081883, 10.59963755938173]</t>
+          <t>[5.008104595025083, 5.734199448081903, 10.599637559381387]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -592,20 +592,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[5.008104595001939, 5.734199448075995, 638.9034182886577]</t>
+          <t>[5.008104595001939, 5.734199448075995, 10.599637559493772]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>372.092</v>
       </c>
       <c r="G4" t="n">
-        <v>395138</v>
+        <v>372.092</v>
       </c>
       <c r="H4" t="n">
-        <v>628.6</v>
+        <v>19.2897</v>
       </c>
       <c r="I4" t="n">
-        <v>628.304</v>
+        <v>15.2952</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
+          <t>[0.09276893926046914, 0.08168661668268835, 0.04803145896248584]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,20 +634,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[5.00810459500194, 5.734199448076016, 638.903418288658]</t>
+          <t>[5.008104595001945, 5.734199448076011, 10.599637559493772]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>372.092</v>
       </c>
       <c r="G5" t="n">
-        <v>395138</v>
+        <v>372.092</v>
       </c>
       <c r="H5" t="n">
-        <v>628.6</v>
+        <v>19.2897</v>
       </c>
       <c r="I5" t="n">
-        <v>628.304</v>
+        <v>15.2952</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.016612939351596613, 0.07334226991833549, 0.07541311194742319]</t>
+          <t>[0.09276893926046914, 0.08168661668268835, 0.04803145896248584]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[5.008104595020174, 5.734199448068993, 10.599637559494415]</t>
+          <t>[5.008104595020176, 5.734199448068993, 10.599637559494376]</t>
         </is>
       </c>
       <c r="F7" t="n">
